--- a/resources/data.xlsx
+++ b/resources/data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>EmpID</t>
   </si>

--- a/resources/data.xlsx
+++ b/resources/data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\KanTime\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490CA3B6-A4F6-4CCB-9108-0FF323B27FF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A337152B-58C9-477C-9825-2084981EE3DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4371" yWindow="1757" windowWidth="12343" windowHeight="6112" xr2:uid="{CFDECFF1-AC99-488F-A331-8A6446DD9898}"/>
+    <workbookView xWindow="3070" yWindow="1230" windowWidth="14400" windowHeight="7270" activeTab="2" xr2:uid="{CFDECFF1-AC99-488F-A331-8A6446DD9898}"/>
   </bookViews>
   <sheets>
     <sheet name="praveen" sheetId="1" r:id="rId1"/>
+    <sheet name="eChartMaster" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>EmpID</t>
   </si>
@@ -40,6 +42,42 @@
   </si>
   <si>
     <t>shwenky</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>patient_first_name</t>
+  </si>
+  <si>
+    <t>patient_last_name</t>
+  </si>
+  <si>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>eChart_date</t>
+  </si>
+  <si>
+    <t>cgtaskid</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>uipath@string</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -47,7 +85,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,13 +93,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -73,13 +141,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -394,13 +467,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E8E297-7D30-4F87-8545-15C7BD2C3F17}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -408,7 +481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="0">
         <v>1</v>
       </c>
@@ -416,7 +489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="0">
         <v>2</v>
       </c>
@@ -430,4 +503,92 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF890D7-B2CD-4490-B4B6-04CA462A4374}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="19.1796875"/>
+    <col min="2" max="2" customWidth="true" width="16.1796875"/>
+    <col min="3" max="3" customWidth="true" width="10.54296875"/>
+    <col min="4" max="4" customWidth="true" width="12.26953125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EB03FA-871E-436E-8D6D-583AF70166C7}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="18.7265625"/>
+    <col min="2" max="2" customWidth="true" width="20.453125"/>
+    <col min="3" max="3" customWidth="true" width="14.81640625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{C0BD7038-1EDE-4CFB-A734-2C0353C12A5D}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{62536F87-FC83-4B36-BFF8-5DAE6E59F0B2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/data.xlsx
+++ b/resources/data.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\KanTime\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praveenkumar\KanTime\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A337152B-58C9-477C-9825-2084981EE3DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3070" yWindow="1230" windowWidth="14400" windowHeight="7270" activeTab="2" xr2:uid="{CFDECFF1-AC99-488F-A331-8A6446DD9898}"/>
+    <workbookView xWindow="3075" yWindow="1230" windowWidth="14400" windowHeight="7275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="praveen" sheetId="1" r:id="rId1"/>
     <sheet name="eChartMaster" sheetId="2" r:id="rId2"/>
     <sheet name="Login" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>EmpID</t>
   </si>
@@ -75,6 +74,12 @@
   </si>
   <si>
     <t>Success</t>
+  </si>
+  <si>
+    <t>TestNew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KafkaTest </t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -83,9 +88,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +122,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -145,11 +156,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -464,16 +484,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E8E297-7D30-4F87-8545-15C7BD2C3F17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -481,7 +501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="0">
         <v>1</v>
       </c>
@@ -489,7 +509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="0">
         <v>2</v>
       </c>
@@ -506,22 +526,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF890D7-B2CD-4490-B4B6-04CA462A4374}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.1796875"/>
-    <col min="2" max="2" customWidth="true" width="16.1796875"/>
-    <col min="3" max="3" customWidth="true" width="10.54296875"/>
-    <col min="4" max="4" customWidth="true" width="12.26953125"/>
+    <col min="1" max="1" customWidth="true" width="19.140625"/>
+    <col min="2" max="2" customWidth="true" width="16.140625"/>
+    <col min="3" max="3" customWidth="true" width="10.5703125"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -540,6 +560,1042 @@
       <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1558</v>
+      </c>
+      <c r="D2" s="6">
+        <v>44927</v>
+      </c>
+      <c r="E2" s="5">
+        <v>6988078</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4"/>
+      <c r="BT2" s="4"/>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4"/>
+      <c r="BW2" s="4"/>
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="4"/>
+      <c r="BZ2" s="4"/>
+      <c r="CA2" s="4"/>
+      <c r="CB2" s="4"/>
+      <c r="CC2" s="4"/>
+      <c r="CD2" s="4"/>
+      <c r="CE2" s="4"/>
+      <c r="CF2" s="4"/>
+      <c r="CG2" s="4"/>
+      <c r="CH2" s="4"/>
+      <c r="CI2" s="4"/>
+      <c r="CJ2" s="4"/>
+      <c r="CK2" s="4"/>
+      <c r="CL2" s="4"/>
+      <c r="CM2" s="4"/>
+      <c r="CN2" s="4"/>
+      <c r="CO2" s="4"/>
+      <c r="CP2" s="4"/>
+      <c r="CQ2" s="4"/>
+      <c r="CR2" s="4"/>
+      <c r="CS2" s="4"/>
+      <c r="CT2" s="4"/>
+      <c r="CU2" s="4"/>
+      <c r="CV2" s="4"/>
+      <c r="CW2" s="4"/>
+      <c r="CX2" s="4"/>
+      <c r="CY2" s="4"/>
+      <c r="CZ2" s="4"/>
+      <c r="DA2" s="4"/>
+      <c r="DB2" s="4"/>
+      <c r="DC2" s="4"/>
+      <c r="DD2" s="4"/>
+      <c r="DE2" s="4"/>
+      <c r="DF2" s="4"/>
+      <c r="DG2" s="4"/>
+      <c r="DH2" s="4"/>
+      <c r="DI2" s="4"/>
+      <c r="DJ2" s="4"/>
+      <c r="DK2" s="4"/>
+      <c r="DL2" s="4"/>
+      <c r="DM2" s="4"/>
+      <c r="DN2" s="4"/>
+      <c r="DO2" s="4"/>
+      <c r="DP2" s="4"/>
+      <c r="DQ2" s="4"/>
+      <c r="DR2" s="4"/>
+      <c r="DS2" s="4"/>
+      <c r="DT2" s="4"/>
+      <c r="DU2" s="4"/>
+      <c r="DV2" s="4"/>
+      <c r="DW2" s="4"/>
+      <c r="DX2" s="4"/>
+      <c r="DY2" s="4"/>
+      <c r="DZ2" s="4"/>
+      <c r="EA2" s="4"/>
+      <c r="EB2" s="4"/>
+      <c r="EC2" s="4"/>
+      <c r="ED2" s="4"/>
+      <c r="EE2" s="4"/>
+      <c r="EF2" s="4"/>
+      <c r="EG2" s="4"/>
+      <c r="EH2" s="4"/>
+      <c r="EI2" s="4"/>
+      <c r="EJ2" s="4"/>
+      <c r="EK2" s="4"/>
+      <c r="EL2" s="4"/>
+      <c r="EM2" s="4"/>
+      <c r="EN2" s="4"/>
+      <c r="EO2" s="4"/>
+      <c r="EP2" s="4"/>
+      <c r="EQ2" s="4"/>
+      <c r="ER2" s="4"/>
+      <c r="ES2" s="4"/>
+      <c r="ET2" s="4"/>
+      <c r="EU2" s="4"/>
+      <c r="EV2" s="4"/>
+      <c r="EW2" s="4"/>
+      <c r="EX2" s="4"/>
+      <c r="EY2" s="4"/>
+      <c r="EZ2" s="4"/>
+      <c r="FA2" s="4"/>
+      <c r="FB2" s="4"/>
+      <c r="FC2" s="4"/>
+      <c r="FD2" s="4"/>
+      <c r="FE2" s="4"/>
+      <c r="FF2" s="4"/>
+      <c r="FG2" s="4"/>
+      <c r="FH2" s="4"/>
+      <c r="FI2" s="4"/>
+      <c r="FJ2" s="4"/>
+      <c r="FK2" s="4"/>
+      <c r="FL2" s="4"/>
+      <c r="FM2" s="4"/>
+      <c r="FN2" s="4"/>
+      <c r="FO2" s="4"/>
+      <c r="FP2" s="4"/>
+      <c r="FQ2" s="4"/>
+      <c r="FR2" s="4"/>
+      <c r="FS2" s="4"/>
+      <c r="FT2" s="4"/>
+      <c r="FU2" s="4"/>
+      <c r="FV2" s="4"/>
+      <c r="FW2" s="4"/>
+      <c r="FX2" s="4"/>
+      <c r="FY2" s="4"/>
+      <c r="FZ2" s="4"/>
+      <c r="GA2" s="4"/>
+      <c r="GB2" s="4"/>
+      <c r="GC2" s="4"/>
+      <c r="GD2" s="4"/>
+      <c r="GE2" s="4"/>
+      <c r="GF2" s="4"/>
+      <c r="GG2" s="4"/>
+      <c r="GH2" s="4"/>
+      <c r="GI2" s="4"/>
+      <c r="GJ2" s="4"/>
+      <c r="GK2" s="4"/>
+      <c r="GL2" s="4"/>
+      <c r="GM2" s="4"/>
+      <c r="GN2" s="4"/>
+      <c r="GO2" s="4"/>
+      <c r="GP2" s="4"/>
+      <c r="GQ2" s="4"/>
+      <c r="GR2" s="4"/>
+      <c r="GS2" s="4"/>
+      <c r="GT2" s="4"/>
+      <c r="GU2" s="4"/>
+      <c r="GV2" s="4"/>
+      <c r="GW2" s="4"/>
+      <c r="GX2" s="4"/>
+      <c r="GY2" s="4"/>
+      <c r="GZ2" s="4"/>
+      <c r="HA2" s="4"/>
+      <c r="HB2" s="4"/>
+      <c r="HC2" s="4"/>
+      <c r="HD2" s="4"/>
+      <c r="HE2" s="4"/>
+      <c r="HF2" s="4"/>
+      <c r="HG2" s="4"/>
+      <c r="HH2" s="4"/>
+      <c r="HI2" s="4"/>
+      <c r="HJ2" s="4"/>
+      <c r="HK2" s="4"/>
+      <c r="HL2" s="4"/>
+      <c r="HM2" s="4"/>
+      <c r="HN2" s="4"/>
+      <c r="HO2" s="4"/>
+      <c r="HP2" s="4"/>
+      <c r="HQ2" s="4"/>
+      <c r="HR2" s="4"/>
+      <c r="HS2" s="4"/>
+      <c r="HT2" s="4"/>
+      <c r="HU2" s="4"/>
+      <c r="HV2" s="4"/>
+      <c r="HW2" s="4"/>
+      <c r="HX2" s="4"/>
+      <c r="HY2" s="4"/>
+      <c r="HZ2" s="4"/>
+      <c r="IA2" s="4"/>
+      <c r="IB2" s="4"/>
+      <c r="IC2" s="4"/>
+      <c r="ID2" s="4"/>
+      <c r="IE2" s="4"/>
+      <c r="IF2" s="4"/>
+      <c r="IG2" s="4"/>
+      <c r="IH2" s="4"/>
+      <c r="II2" s="4"/>
+      <c r="IJ2" s="4"/>
+      <c r="IK2" s="4"/>
+      <c r="IL2" s="4"/>
+      <c r="IM2" s="4"/>
+      <c r="IN2" s="4"/>
+      <c r="IO2" s="4"/>
+      <c r="IP2" s="4"/>
+      <c r="IQ2" s="4"/>
+      <c r="IR2" s="4"/>
+      <c r="IS2" s="4"/>
+      <c r="IT2" s="4"/>
+      <c r="IU2" s="4"/>
+      <c r="IV2" s="4"/>
+      <c r="IW2" s="4"/>
+      <c r="IX2" s="4"/>
+      <c r="IY2" s="4"/>
+      <c r="IZ2" s="4"/>
+      <c r="JA2" s="4"/>
+      <c r="JB2" s="4"/>
+      <c r="JC2" s="4"/>
+      <c r="JD2" s="4"/>
+      <c r="JE2" s="4"/>
+      <c r="JF2" s="4"/>
+      <c r="JG2" s="4"/>
+      <c r="JH2" s="4"/>
+      <c r="JI2" s="4"/>
+      <c r="JJ2" s="4"/>
+      <c r="JK2" s="4"/>
+      <c r="JL2" s="4"/>
+      <c r="JM2" s="4"/>
+      <c r="JN2" s="4"/>
+      <c r="JO2" s="4"/>
+      <c r="JP2" s="4"/>
+      <c r="JQ2" s="4"/>
+      <c r="JR2" s="4"/>
+      <c r="JS2" s="4"/>
+      <c r="JT2" s="4"/>
+      <c r="JU2" s="4"/>
+      <c r="JV2" s="4"/>
+      <c r="JW2" s="4"/>
+      <c r="JX2" s="4"/>
+      <c r="JY2" s="4"/>
+      <c r="JZ2" s="4"/>
+      <c r="KA2" s="4"/>
+      <c r="KB2" s="4"/>
+      <c r="KC2" s="4"/>
+      <c r="KD2" s="4"/>
+      <c r="KE2" s="4"/>
+      <c r="KF2" s="4"/>
+      <c r="KG2" s="4"/>
+      <c r="KH2" s="4"/>
+      <c r="KI2" s="4"/>
+      <c r="KJ2" s="4"/>
+      <c r="KK2" s="4"/>
+      <c r="KL2" s="4"/>
+      <c r="KM2" s="4"/>
+      <c r="KN2" s="4"/>
+      <c r="KO2" s="4"/>
+      <c r="KP2" s="4"/>
+      <c r="KQ2" s="4"/>
+      <c r="KR2" s="4"/>
+      <c r="KS2" s="4"/>
+      <c r="KT2" s="4"/>
+      <c r="KU2" s="4"/>
+      <c r="KV2" s="4"/>
+      <c r="KW2" s="4"/>
+      <c r="KX2" s="4"/>
+      <c r="KY2" s="4"/>
+      <c r="KZ2" s="4"/>
+      <c r="LA2" s="4"/>
+      <c r="LB2" s="4"/>
+      <c r="LC2" s="4"/>
+      <c r="LD2" s="4"/>
+      <c r="LE2" s="4"/>
+      <c r="LF2" s="4"/>
+      <c r="LG2" s="4"/>
+      <c r="LH2" s="4"/>
+      <c r="LI2" s="4"/>
+      <c r="LJ2" s="4"/>
+      <c r="LK2" s="4"/>
+      <c r="LL2" s="4"/>
+      <c r="LM2" s="4"/>
+      <c r="LN2" s="4"/>
+      <c r="LO2" s="4"/>
+      <c r="LP2" s="4"/>
+      <c r="LQ2" s="4"/>
+      <c r="LR2" s="4"/>
+      <c r="LS2" s="4"/>
+      <c r="LT2" s="4"/>
+      <c r="LU2" s="4"/>
+      <c r="LV2" s="4"/>
+      <c r="LW2" s="4"/>
+      <c r="LX2" s="4"/>
+      <c r="LY2" s="4"/>
+      <c r="LZ2" s="4"/>
+      <c r="MA2" s="4"/>
+      <c r="MB2" s="4"/>
+      <c r="MC2" s="4"/>
+      <c r="MD2" s="4"/>
+      <c r="ME2" s="4"/>
+      <c r="MF2" s="4"/>
+      <c r="MG2" s="4"/>
+      <c r="MH2" s="4"/>
+      <c r="MI2" s="4"/>
+      <c r="MJ2" s="4"/>
+      <c r="MK2" s="4"/>
+      <c r="ML2" s="4"/>
+      <c r="MM2" s="4"/>
+      <c r="MN2" s="4"/>
+      <c r="MO2" s="4"/>
+      <c r="MP2" s="4"/>
+      <c r="MQ2" s="4"/>
+      <c r="MR2" s="4"/>
+      <c r="MS2" s="4"/>
+      <c r="MT2" s="4"/>
+      <c r="MU2" s="4"/>
+      <c r="MV2" s="4"/>
+      <c r="MW2" s="4"/>
+      <c r="MX2" s="4"/>
+      <c r="MY2" s="4"/>
+      <c r="MZ2" s="4"/>
+      <c r="NA2" s="4"/>
+      <c r="NB2" s="4"/>
+      <c r="NC2" s="4"/>
+      <c r="ND2" s="4"/>
+      <c r="NE2" s="4"/>
+      <c r="NF2" s="4"/>
+      <c r="NG2" s="4"/>
+      <c r="NH2" s="4"/>
+      <c r="NI2" s="4"/>
+      <c r="NJ2" s="4"/>
+      <c r="NK2" s="4"/>
+      <c r="NL2" s="4"/>
+      <c r="NM2" s="4"/>
+      <c r="NN2" s="4"/>
+      <c r="NO2" s="4"/>
+      <c r="NP2" s="4"/>
+      <c r="NQ2" s="4"/>
+      <c r="NR2" s="4"/>
+      <c r="NS2" s="4"/>
+      <c r="NT2" s="4"/>
+      <c r="NU2" s="4"/>
+      <c r="NV2" s="4"/>
+      <c r="NW2" s="4"/>
+      <c r="NX2" s="4"/>
+      <c r="NY2" s="4"/>
+      <c r="NZ2" s="4"/>
+      <c r="OA2" s="4"/>
+      <c r="OB2" s="4"/>
+      <c r="OC2" s="4"/>
+      <c r="OD2" s="4"/>
+      <c r="OE2" s="4"/>
+      <c r="OF2" s="4"/>
+      <c r="OG2" s="4"/>
+      <c r="OH2" s="4"/>
+      <c r="OI2" s="4"/>
+      <c r="OJ2" s="4"/>
+      <c r="OK2" s="4"/>
+      <c r="OL2" s="4"/>
+      <c r="OM2" s="4"/>
+      <c r="ON2" s="4"/>
+      <c r="OO2" s="4"/>
+      <c r="OP2" s="4"/>
+      <c r="OQ2" s="4"/>
+      <c r="OR2" s="4"/>
+      <c r="OS2" s="4"/>
+      <c r="OT2" s="4"/>
+      <c r="OU2" s="4"/>
+      <c r="OV2" s="4"/>
+      <c r="OW2" s="4"/>
+      <c r="OX2" s="4"/>
+      <c r="OY2" s="4"/>
+      <c r="OZ2" s="4"/>
+      <c r="PA2" s="4"/>
+      <c r="PB2" s="4"/>
+      <c r="PC2" s="4"/>
+      <c r="PD2" s="4"/>
+      <c r="PE2" s="4"/>
+      <c r="PF2" s="4"/>
+      <c r="PG2" s="4"/>
+      <c r="PH2" s="4"/>
+      <c r="PI2" s="4"/>
+      <c r="PJ2" s="4"/>
+      <c r="PK2" s="4"/>
+      <c r="PL2" s="4"/>
+      <c r="PM2" s="4"/>
+      <c r="PN2" s="4"/>
+      <c r="PO2" s="4"/>
+      <c r="PP2" s="4"/>
+      <c r="PQ2" s="4"/>
+      <c r="PR2" s="4"/>
+      <c r="PS2" s="4"/>
+      <c r="PT2" s="4"/>
+      <c r="PU2" s="4"/>
+      <c r="PV2" s="4"/>
+      <c r="PW2" s="4"/>
+      <c r="PX2" s="4"/>
+      <c r="PY2" s="4"/>
+      <c r="PZ2" s="4"/>
+      <c r="QA2" s="4"/>
+      <c r="QB2" s="4"/>
+      <c r="QC2" s="4"/>
+      <c r="QD2" s="4"/>
+      <c r="QE2" s="4"/>
+      <c r="QF2" s="4"/>
+      <c r="QG2" s="4"/>
+      <c r="QH2" s="4"/>
+      <c r="QI2" s="4"/>
+      <c r="QJ2" s="4"/>
+      <c r="QK2" s="4"/>
+      <c r="QL2" s="4"/>
+      <c r="QM2" s="4"/>
+      <c r="QN2" s="4"/>
+      <c r="QO2" s="4"/>
+      <c r="QP2" s="4"/>
+      <c r="QQ2" s="4"/>
+      <c r="QR2" s="4"/>
+      <c r="QS2" s="4"/>
+      <c r="QT2" s="4"/>
+      <c r="QU2" s="4"/>
+      <c r="QV2" s="4"/>
+      <c r="QW2" s="4"/>
+      <c r="QX2" s="4"/>
+      <c r="QY2" s="4"/>
+      <c r="QZ2" s="4"/>
+      <c r="RA2" s="4"/>
+      <c r="RB2" s="4"/>
+      <c r="RC2" s="4"/>
+      <c r="RD2" s="4"/>
+      <c r="RE2" s="4"/>
+      <c r="RF2" s="4"/>
+      <c r="RG2" s="4"/>
+      <c r="RH2" s="4"/>
+      <c r="RI2" s="4"/>
+      <c r="RJ2" s="4"/>
+      <c r="RK2" s="4"/>
+      <c r="RL2" s="4"/>
+      <c r="RM2" s="4"/>
+      <c r="RN2" s="4"/>
+      <c r="RO2" s="4"/>
+      <c r="RP2" s="4"/>
+      <c r="RQ2" s="4"/>
+      <c r="RR2" s="4"/>
+      <c r="RS2" s="4"/>
+      <c r="RT2" s="4"/>
+      <c r="RU2" s="4"/>
+      <c r="RV2" s="4"/>
+      <c r="RW2" s="4"/>
+      <c r="RX2" s="4"/>
+      <c r="RY2" s="4"/>
+      <c r="RZ2" s="4"/>
+      <c r="SA2" s="4"/>
+      <c r="SB2" s="4"/>
+      <c r="SC2" s="4"/>
+      <c r="SD2" s="4"/>
+      <c r="SE2" s="4"/>
+      <c r="SF2" s="4"/>
+      <c r="SG2" s="4"/>
+      <c r="SH2" s="4"/>
+      <c r="SI2" s="4"/>
+      <c r="SJ2" s="4"/>
+      <c r="SK2" s="4"/>
+      <c r="SL2" s="4"/>
+      <c r="SM2" s="4"/>
+      <c r="SN2" s="4"/>
+      <c r="SO2" s="4"/>
+      <c r="SP2" s="4"/>
+      <c r="SQ2" s="4"/>
+      <c r="SR2" s="4"/>
+      <c r="SS2" s="4"/>
+      <c r="ST2" s="4"/>
+      <c r="SU2" s="4"/>
+      <c r="SV2" s="4"/>
+      <c r="SW2" s="4"/>
+      <c r="SX2" s="4"/>
+      <c r="SY2" s="4"/>
+      <c r="SZ2" s="4"/>
+      <c r="TA2" s="4"/>
+      <c r="TB2" s="4"/>
+      <c r="TC2" s="4"/>
+      <c r="TD2" s="4"/>
+      <c r="TE2" s="4"/>
+      <c r="TF2" s="4"/>
+      <c r="TG2" s="4"/>
+      <c r="TH2" s="4"/>
+      <c r="TI2" s="4"/>
+      <c r="TJ2" s="4"/>
+      <c r="TK2" s="4"/>
+      <c r="TL2" s="4"/>
+      <c r="TM2" s="4"/>
+      <c r="TN2" s="4"/>
+      <c r="TO2" s="4"/>
+      <c r="TP2" s="4"/>
+      <c r="TQ2" s="4"/>
+      <c r="TR2" s="4"/>
+      <c r="TS2" s="4"/>
+      <c r="TT2" s="4"/>
+      <c r="TU2" s="4"/>
+      <c r="TV2" s="4"/>
+      <c r="TW2" s="4"/>
+      <c r="TX2" s="4"/>
+      <c r="TY2" s="4"/>
+      <c r="TZ2" s="4"/>
+      <c r="UA2" s="4"/>
+      <c r="UB2" s="4"/>
+      <c r="UC2" s="4"/>
+      <c r="UD2" s="4"/>
+      <c r="UE2" s="4"/>
+      <c r="UF2" s="4"/>
+      <c r="UG2" s="4"/>
+      <c r="UH2" s="4"/>
+      <c r="UI2" s="4"/>
+      <c r="UJ2" s="4"/>
+      <c r="UK2" s="4"/>
+      <c r="UL2" s="4"/>
+      <c r="UM2" s="4"/>
+      <c r="UN2" s="4"/>
+      <c r="UO2" s="4"/>
+      <c r="UP2" s="4"/>
+      <c r="UQ2" s="4"/>
+      <c r="UR2" s="4"/>
+      <c r="US2" s="4"/>
+      <c r="UT2" s="4"/>
+      <c r="UU2" s="4"/>
+      <c r="UV2" s="4"/>
+      <c r="UW2" s="4"/>
+      <c r="UX2" s="4"/>
+      <c r="UY2" s="4"/>
+      <c r="UZ2" s="4"/>
+      <c r="VA2" s="4"/>
+      <c r="VB2" s="4"/>
+      <c r="VC2" s="4"/>
+      <c r="VD2" s="4"/>
+      <c r="VE2" s="4"/>
+      <c r="VF2" s="4"/>
+      <c r="VG2" s="4"/>
+      <c r="VH2" s="4"/>
+      <c r="VI2" s="4"/>
+      <c r="VJ2" s="4"/>
+      <c r="VK2" s="4"/>
+      <c r="VL2" s="4"/>
+      <c r="VM2" s="4"/>
+      <c r="VN2" s="4"/>
+      <c r="VO2" s="4"/>
+      <c r="VP2" s="4"/>
+      <c r="VQ2" s="4"/>
+      <c r="VR2" s="4"/>
+      <c r="VS2" s="4"/>
+      <c r="VT2" s="4"/>
+      <c r="VU2" s="4"/>
+      <c r="VV2" s="4"/>
+      <c r="VW2" s="4"/>
+      <c r="VX2" s="4"/>
+      <c r="VY2" s="4"/>
+      <c r="VZ2" s="4"/>
+      <c r="WA2" s="4"/>
+      <c r="WB2" s="4"/>
+      <c r="WC2" s="4"/>
+      <c r="WD2" s="4"/>
+      <c r="WE2" s="4"/>
+      <c r="WF2" s="4"/>
+      <c r="WG2" s="4"/>
+      <c r="WH2" s="4"/>
+      <c r="WI2" s="4"/>
+      <c r="WJ2" s="4"/>
+      <c r="WK2" s="4"/>
+      <c r="WL2" s="4"/>
+      <c r="WM2" s="4"/>
+      <c r="WN2" s="4"/>
+      <c r="WO2" s="4"/>
+      <c r="WP2" s="4"/>
+      <c r="WQ2" s="4"/>
+      <c r="WR2" s="4"/>
+      <c r="WS2" s="4"/>
+      <c r="WT2" s="4"/>
+      <c r="WU2" s="4"/>
+      <c r="WV2" s="4"/>
+      <c r="WW2" s="4"/>
+      <c r="WX2" s="4"/>
+      <c r="WY2" s="4"/>
+      <c r="WZ2" s="4"/>
+      <c r="XA2" s="4"/>
+      <c r="XB2" s="4"/>
+      <c r="XC2" s="4"/>
+      <c r="XD2" s="4"/>
+      <c r="XE2" s="4"/>
+      <c r="XF2" s="4"/>
+      <c r="XG2" s="4"/>
+      <c r="XH2" s="4"/>
+      <c r="XI2" s="4"/>
+      <c r="XJ2" s="4"/>
+      <c r="XK2" s="4"/>
+      <c r="XL2" s="4"/>
+      <c r="XM2" s="4"/>
+      <c r="XN2" s="4"/>
+      <c r="XO2" s="4"/>
+      <c r="XP2" s="4"/>
+      <c r="XQ2" s="4"/>
+      <c r="XR2" s="4"/>
+      <c r="XS2" s="4"/>
+      <c r="XT2" s="4"/>
+      <c r="XU2" s="4"/>
+      <c r="XV2" s="4"/>
+      <c r="XW2" s="4"/>
+      <c r="XX2" s="4"/>
+      <c r="XY2" s="4"/>
+      <c r="XZ2" s="4"/>
+      <c r="YA2" s="4"/>
+      <c r="YB2" s="4"/>
+      <c r="YC2" s="4"/>
+      <c r="YD2" s="4"/>
+      <c r="YE2" s="4"/>
+      <c r="YF2" s="4"/>
+      <c r="YG2" s="4"/>
+      <c r="YH2" s="4"/>
+      <c r="YI2" s="4"/>
+      <c r="YJ2" s="4"/>
+      <c r="YK2" s="4"/>
+      <c r="YL2" s="4"/>
+      <c r="YM2" s="4"/>
+      <c r="YN2" s="4"/>
+      <c r="YO2" s="4"/>
+      <c r="YP2" s="4"/>
+      <c r="YQ2" s="4"/>
+      <c r="YR2" s="4"/>
+      <c r="YS2" s="4"/>
+      <c r="YT2" s="4"/>
+      <c r="YU2" s="4"/>
+      <c r="YV2" s="4"/>
+      <c r="YW2" s="4"/>
+      <c r="YX2" s="4"/>
+      <c r="YY2" s="4"/>
+      <c r="YZ2" s="4"/>
+      <c r="ZA2" s="4"/>
+      <c r="ZB2" s="4"/>
+      <c r="ZC2" s="4"/>
+      <c r="ZD2" s="4"/>
+      <c r="ZE2" s="4"/>
+      <c r="ZF2" s="4"/>
+      <c r="ZG2" s="4"/>
+      <c r="ZH2" s="4"/>
+      <c r="ZI2" s="4"/>
+      <c r="ZJ2" s="4"/>
+      <c r="ZK2" s="4"/>
+      <c r="ZL2" s="4"/>
+      <c r="ZM2" s="4"/>
+      <c r="ZN2" s="4"/>
+      <c r="ZO2" s="4"/>
+      <c r="ZP2" s="4"/>
+      <c r="ZQ2" s="4"/>
+      <c r="ZR2" s="4"/>
+      <c r="ZS2" s="4"/>
+      <c r="ZT2" s="4"/>
+      <c r="ZU2" s="4"/>
+      <c r="ZV2" s="4"/>
+      <c r="ZW2" s="4"/>
+      <c r="ZX2" s="4"/>
+      <c r="ZY2" s="4"/>
+      <c r="ZZ2" s="4"/>
+      <c r="AAA2" s="4"/>
+      <c r="AAB2" s="4"/>
+      <c r="AAC2" s="4"/>
+      <c r="AAD2" s="4"/>
+      <c r="AAE2" s="4"/>
+      <c r="AAF2" s="4"/>
+      <c r="AAG2" s="4"/>
+      <c r="AAH2" s="4"/>
+      <c r="AAI2" s="4"/>
+      <c r="AAJ2" s="4"/>
+      <c r="AAK2" s="4"/>
+      <c r="AAL2" s="4"/>
+      <c r="AAM2" s="4"/>
+      <c r="AAN2" s="4"/>
+      <c r="AAO2" s="4"/>
+      <c r="AAP2" s="4"/>
+      <c r="AAQ2" s="4"/>
+      <c r="AAR2" s="4"/>
+      <c r="AAS2" s="4"/>
+      <c r="AAT2" s="4"/>
+      <c r="AAU2" s="4"/>
+      <c r="AAV2" s="4"/>
+      <c r="AAW2" s="4"/>
+      <c r="AAX2" s="4"/>
+      <c r="AAY2" s="4"/>
+      <c r="AAZ2" s="4"/>
+      <c r="ABA2" s="4"/>
+      <c r="ABB2" s="4"/>
+      <c r="ABC2" s="4"/>
+      <c r="ABD2" s="4"/>
+      <c r="ABE2" s="4"/>
+      <c r="ABF2" s="4"/>
+      <c r="ABG2" s="4"/>
+      <c r="ABH2" s="4"/>
+      <c r="ABI2" s="4"/>
+      <c r="ABJ2" s="4"/>
+      <c r="ABK2" s="4"/>
+      <c r="ABL2" s="4"/>
+      <c r="ABM2" s="4"/>
+      <c r="ABN2" s="4"/>
+      <c r="ABO2" s="4"/>
+      <c r="ABP2" s="4"/>
+      <c r="ABQ2" s="4"/>
+      <c r="ABR2" s="4"/>
+      <c r="ABS2" s="4"/>
+      <c r="ABT2" s="4"/>
+      <c r="ABU2" s="4"/>
+      <c r="ABV2" s="4"/>
+      <c r="ABW2" s="4"/>
+      <c r="ABX2" s="4"/>
+      <c r="ABY2" s="4"/>
+      <c r="ABZ2" s="4"/>
+      <c r="ACA2" s="4"/>
+      <c r="ACB2" s="4"/>
+      <c r="ACC2" s="4"/>
+      <c r="ACD2" s="4"/>
+      <c r="ACE2" s="4"/>
+      <c r="ACF2" s="4"/>
+      <c r="ACG2" s="4"/>
+      <c r="ACH2" s="4"/>
+      <c r="ACI2" s="4"/>
+      <c r="ACJ2" s="4"/>
+      <c r="ACK2" s="4"/>
+      <c r="ACL2" s="4"/>
+      <c r="ACM2" s="4"/>
+      <c r="ACN2" s="4"/>
+      <c r="ACO2" s="4"/>
+      <c r="ACP2" s="4"/>
+      <c r="ACQ2" s="4"/>
+      <c r="ACR2" s="4"/>
+      <c r="ACS2" s="4"/>
+      <c r="ACT2" s="4"/>
+      <c r="ACU2" s="4"/>
+      <c r="ACV2" s="4"/>
+      <c r="ACW2" s="4"/>
+      <c r="ACX2" s="4"/>
+      <c r="ACY2" s="4"/>
+      <c r="ACZ2" s="4"/>
+      <c r="ADA2" s="4"/>
+      <c r="ADB2" s="4"/>
+      <c r="ADC2" s="4"/>
+      <c r="ADD2" s="4"/>
+      <c r="ADE2" s="4"/>
+      <c r="ADF2" s="4"/>
+      <c r="ADG2" s="4"/>
+      <c r="ADH2" s="4"/>
+      <c r="ADI2" s="4"/>
+      <c r="ADJ2" s="4"/>
+      <c r="ADK2" s="4"/>
+      <c r="ADL2" s="4"/>
+      <c r="ADM2" s="4"/>
+      <c r="ADN2" s="4"/>
+      <c r="ADO2" s="4"/>
+      <c r="ADP2" s="4"/>
+      <c r="ADQ2" s="4"/>
+      <c r="ADR2" s="4"/>
+      <c r="ADS2" s="4"/>
+      <c r="ADT2" s="4"/>
+      <c r="ADU2" s="4"/>
+      <c r="ADV2" s="4"/>
+      <c r="ADW2" s="4"/>
+      <c r="ADX2" s="4"/>
+      <c r="ADY2" s="4"/>
+      <c r="ADZ2" s="4"/>
+      <c r="AEA2" s="4"/>
+      <c r="AEB2" s="4"/>
+      <c r="AEC2" s="4"/>
+      <c r="AED2" s="4"/>
+      <c r="AEE2" s="4"/>
+      <c r="AEF2" s="4"/>
+      <c r="AEG2" s="4"/>
+      <c r="AEH2" s="4"/>
+      <c r="AEI2" s="4"/>
+      <c r="AEJ2" s="4"/>
+      <c r="AEK2" s="4"/>
+      <c r="AEL2" s="4"/>
+      <c r="AEM2" s="4"/>
+      <c r="AEN2" s="4"/>
+      <c r="AEO2" s="4"/>
+      <c r="AEP2" s="4"/>
+      <c r="AEQ2" s="4"/>
+      <c r="AER2" s="4"/>
+      <c r="AES2" s="4"/>
+      <c r="AET2" s="4"/>
+      <c r="AEU2" s="4"/>
+      <c r="AEV2" s="4"/>
+      <c r="AEW2" s="4"/>
+      <c r="AEX2" s="4"/>
+      <c r="AEY2" s="4"/>
+      <c r="AEZ2" s="4"/>
+      <c r="AFA2" s="4"/>
+      <c r="AFB2" s="4"/>
+      <c r="AFC2" s="4"/>
+      <c r="AFD2" s="4"/>
+      <c r="AFE2" s="4"/>
+      <c r="AFF2" s="4"/>
+      <c r="AFG2" s="4"/>
+      <c r="AFH2" s="4"/>
+      <c r="AFI2" s="4"/>
+      <c r="AFJ2" s="4"/>
+      <c r="AFK2" s="4"/>
+      <c r="AFL2" s="4"/>
+      <c r="AFM2" s="4"/>
+      <c r="AFN2" s="4"/>
+      <c r="AFO2" s="4"/>
+      <c r="AFP2" s="4"/>
+      <c r="AFQ2" s="4"/>
+      <c r="AFR2" s="4"/>
+      <c r="AFS2" s="4"/>
+      <c r="AFT2" s="4"/>
+      <c r="AFU2" s="4"/>
+      <c r="AFV2" s="4"/>
+      <c r="AFW2" s="4"/>
+      <c r="AFX2" s="4"/>
+      <c r="AFY2" s="4"/>
+      <c r="AFZ2" s="4"/>
+      <c r="AGA2" s="4"/>
+      <c r="AGB2" s="4"/>
+      <c r="AGC2" s="4"/>
+      <c r="AGD2" s="4"/>
+      <c r="AGE2" s="4"/>
+      <c r="AGF2" s="4"/>
+      <c r="AGG2" s="4"/>
+      <c r="AGH2" s="4"/>
+      <c r="AGI2" s="4"/>
+      <c r="AGJ2" s="4"/>
+      <c r="AGK2" s="4"/>
+      <c r="AGL2" s="4"/>
+      <c r="AGM2" s="4"/>
+      <c r="AGN2" s="4"/>
+      <c r="AGO2" s="4"/>
+      <c r="AGP2" s="4"/>
+      <c r="AGQ2" s="4"/>
+      <c r="AGR2" s="4"/>
+      <c r="AGS2" s="4"/>
+      <c r="AGT2" s="4"/>
+      <c r="AGU2" s="4"/>
+      <c r="AGV2" s="4"/>
+      <c r="AGW2" s="4"/>
+      <c r="AGX2" s="4"/>
+      <c r="AGY2" s="4"/>
+      <c r="AGZ2" s="4"/>
+      <c r="AHA2" s="4"/>
+      <c r="AHB2" s="4"/>
+      <c r="AHC2" s="4"/>
+      <c r="AHD2" s="4"/>
+      <c r="AHE2" s="4"/>
+      <c r="AHF2" s="4"/>
+      <c r="AHG2" s="4"/>
+      <c r="AHH2" s="4"/>
+      <c r="AHI2" s="4"/>
+      <c r="AHJ2" s="4"/>
+      <c r="AHK2" s="4"/>
+      <c r="AHL2" s="4"/>
+      <c r="AHM2" s="4"/>
+      <c r="AHN2" s="4"/>
+      <c r="AHO2" s="4"/>
+      <c r="AHP2" s="4"/>
+      <c r="AHQ2" s="4"/>
+      <c r="AHR2" s="4"/>
+      <c r="AHS2" s="4"/>
+      <c r="AHT2" s="4"/>
+      <c r="AHU2" s="4"/>
+      <c r="AHV2" s="4"/>
+      <c r="AHW2" s="4"/>
+      <c r="AHX2" s="4"/>
+      <c r="AHY2" s="4"/>
+      <c r="AHZ2" s="4"/>
+      <c r="AIA2" s="4"/>
+      <c r="AIB2" s="4"/>
+      <c r="AIC2" s="4"/>
+      <c r="AID2" s="4"/>
+      <c r="AIE2" s="4"/>
+      <c r="AIF2" s="4"/>
+      <c r="AIG2" s="4"/>
+      <c r="AIH2" s="4"/>
+      <c r="AII2" s="4"/>
+      <c r="AIJ2" s="4"/>
+      <c r="AIK2" s="4"/>
+      <c r="AIL2" s="4"/>
+      <c r="AIM2" s="4"/>
+      <c r="AIN2" s="4"/>
+      <c r="AIO2" s="4"/>
+      <c r="AIP2" s="4"/>
+      <c r="AIQ2" s="4"/>
+      <c r="AIR2" s="4"/>
+      <c r="AIS2" s="4"/>
+      <c r="AIT2" s="4"/>
+      <c r="AIU2" s="4"/>
+      <c r="AIV2" s="4"/>
+      <c r="AIW2" s="4"/>
+      <c r="AIX2" s="4"/>
+      <c r="AIY2" s="4"/>
+      <c r="AIZ2" s="4"/>
+      <c r="AJA2" s="4"/>
+      <c r="AJB2" s="4"/>
+      <c r="AJC2" s="4"/>
+      <c r="AJD2" s="4"/>
+      <c r="AJE2" s="4"/>
+      <c r="AJF2" s="4"/>
+      <c r="AJG2" s="4"/>
+      <c r="AJH2" s="4"/>
+      <c r="AJI2" s="4"/>
+      <c r="AJJ2" s="4"/>
+      <c r="AJK2" s="4"/>
+      <c r="AJL2" s="4"/>
+      <c r="AJM2" s="4"/>
+      <c r="AJN2" s="4"/>
+      <c r="AJO2" s="4"/>
+      <c r="AJP2" s="4"/>
+      <c r="AJQ2" s="4"/>
+      <c r="AJR2" s="4"/>
+      <c r="AJS2" s="4"/>
+      <c r="AJT2" s="4"/>
+      <c r="AJU2" s="4"/>
+      <c r="AJV2" s="4"/>
+      <c r="AJW2" s="4"/>
+      <c r="AJX2" s="4"/>
+      <c r="AJY2" s="4"/>
+      <c r="AJZ2" s="4"/>
+      <c r="AKA2" s="4"/>
+      <c r="AKB2" s="4"/>
+      <c r="AKC2" s="4"/>
+      <c r="AKD2" s="4"/>
+      <c r="AKE2" s="4"/>
+      <c r="AKF2" s="4"/>
+      <c r="AKG2" s="4"/>
+      <c r="AKH2" s="4"/>
+      <c r="AKI2" s="4"/>
+      <c r="AKJ2" s="4"/>
+      <c r="AKK2" s="4"/>
+      <c r="AKL2" s="4"/>
+      <c r="AKM2" s="4"/>
+      <c r="AKN2" s="4"/>
+      <c r="AKO2" s="4"/>
+      <c r="AKP2" s="4"/>
+      <c r="AKQ2" s="4"/>
+      <c r="AKR2" s="4"/>
+      <c r="AKS2" s="4"/>
+      <c r="AKT2" s="4"/>
+      <c r="AKU2" s="4"/>
+      <c r="AKV2" s="4"/>
+      <c r="AKW2" s="4"/>
+      <c r="AKX2" s="4"/>
+      <c r="AKY2" s="4"/>
+      <c r="AKZ2" s="4"/>
+      <c r="ALA2" s="4"/>
+      <c r="ALB2" s="4"/>
+      <c r="ALC2" s="4"/>
+      <c r="ALD2" s="4"/>
+      <c r="ALE2" s="4"/>
+      <c r="ALF2" s="4"/>
+      <c r="ALG2" s="4"/>
+      <c r="ALH2" s="4"/>
+      <c r="ALI2" s="4"/>
+      <c r="ALJ2" s="4"/>
+      <c r="ALK2" s="4"/>
+      <c r="ALL2" s="4"/>
+      <c r="ALM2" s="4"/>
+      <c r="ALN2" s="4"/>
+      <c r="ALO2" s="4"/>
+      <c r="ALP2" s="4"/>
+      <c r="ALQ2" s="4"/>
+      <c r="ALR2" s="4"/>
+      <c r="ALS2" s="4"/>
+      <c r="ALT2" s="4"/>
+      <c r="ALU2" s="4"/>
+      <c r="ALV2" s="4"/>
+      <c r="ALW2" s="4"/>
+      <c r="ALX2" s="4"/>
+      <c r="ALY2" s="4"/>
+      <c r="ALZ2" s="4"/>
+      <c r="AMA2" s="4"/>
+      <c r="AMB2" s="4"/>
+      <c r="AMC2" s="4"/>
+      <c r="AMD2" s="4"/>
+      <c r="AME2" s="4"/>
+      <c r="AMF2" s="4"/>
+      <c r="AMG2" s="4"/>
+      <c r="AMH2" s="4"/>
+      <c r="AMI2" s="4"/>
+      <c r="AMJ2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -548,21 +1604,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EB03FA-871E-436E-8D6D-583AF70166C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.7265625"/>
-    <col min="2" max="2" customWidth="true" width="20.453125"/>
-    <col min="3" max="3" customWidth="true" width="14.81640625"/>
+    <col min="1" max="1" customWidth="true" width="18.7109375"/>
+    <col min="2" max="2" customWidth="true" width="20.42578125"/>
+    <col min="3" max="3" customWidth="true" width="14.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -573,7 +1629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -586,8 +1642,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{C0BD7038-1EDE-4CFB-A734-2C0353C12A5D}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{62536F87-FC83-4B36-BFF8-5DAE6E59F0B2}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/data.xlsx
+++ b/resources/data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t>EmpID</t>
   </si>

--- a/resources/data.xlsx
+++ b/resources/data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
   <si>
     <t>EmpID</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">KafkaTest </t>
+  </si>
+  <si>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -89,7 +92,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,7 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -167,7 +172,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -527,10 +538,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ2"/>
+  <dimension ref="A1:AMJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +549,7 @@
     <col min="1" max="1" customWidth="true" width="19.140625"/>
     <col min="2" max="2" customWidth="true" width="16.140625"/>
     <col min="3" max="3" customWidth="true" width="10.5703125"/>
-    <col min="4" max="4" customWidth="true" width="12.28515625"/>
+    <col min="4" max="4" customWidth="true" style="8" width="12.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" x14ac:dyDescent="0.25">
@@ -551,7 +562,7 @@
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -571,10 +582,10 @@
       <c r="C2" s="5">
         <v>1558</v>
       </c>
-      <c r="D2" s="6">
-        <v>44927</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="10">
         <v>6988078</v>
       </c>
       <c r="F2" s="4"/>
@@ -1597,6 +1608,9 @@
       <c r="AMI2" s="4"/>
       <c r="AMJ2" s="4"/>
     </row>
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="E3" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1637,7 +1651,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data.xlsx
+++ b/resources/data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="20">
   <si>
     <t>EmpID</t>
   </si>
@@ -1651,7 +1651,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data.xlsx
+++ b/resources/data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="19">
   <si>
     <t>EmpID</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Doli</t>
   </si>
   <si>
-    <t>shwenky</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -82,7 +79,7 @@
     <t xml:space="preserve">KafkaTest </t>
   </si>
   <si>
-    <t>01/01/2023</t>
+    <t>01/02/2023</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -496,15 +493,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -512,7 +509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="0">
         <v>1</v>
       </c>
@@ -520,15 +517,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="0">
         <v>2</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>3</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -541,7 +535,7 @@
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,39 +548,39 @@
   <sheetData>
     <row r="1" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="C2" s="5">
         <v>1558</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="10">
-        <v>6988078</v>
+        <v>6988079</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1634,24 +1628,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" t="s" s="0">
         <v>14</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data.xlsx
+++ b/resources/data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
   <si>
     <t>EmpID</t>
   </si>
